--- a/MySecondCRUD/BancoDeDados.xlsx
+++ b/MySecondCRUD/BancoDeDados.xlsx
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
-    <x:t>2222</x:t>
+    <x:t>0</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -118,7 +118,7 @@
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:A21" totalsRowShown="0">
   <x:autoFilter ref="A1:A21"/>
   <x:tableColumns count="1">
-    <x:tableColumn id="1" name="2222" dataDxfId="0"/>
+    <x:tableColumn id="1" name="0" dataDxfId="0"/>
   </x:tableColumns>
   <x:tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </x:table>
@@ -408,7 +408,7 @@
     </x:row>
     <x:row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <x:c r="A2" s="1">
-        <x:v>3333</x:v>
+        <x:v>455</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -423,7 +423,7 @@
     </x:row>
     <x:row r="5" spans="1:1">
       <x:c r="A5" s="1">
-        <x:v>4444</x:v>
+        <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:1">
